--- a/base_dash.xlsx
+++ b/base_dash.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1815,6 +1815,111 @@
         <v>805466.9929999999</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>28/10/2022</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>134253.77</v>
+      </c>
+      <c r="D40" t="n">
+        <v>544338.99</v>
+      </c>
+      <c r="E40" t="n">
+        <v>11764.88</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>13408.39</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4452.4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>87433.87145829394</v>
+      </c>
+      <c r="K40" t="n">
+        <v>800652.301458294</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>31/10/2022</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>134390.28</v>
+      </c>
+      <c r="D41" t="n">
+        <v>545032.14</v>
+      </c>
+      <c r="E41" t="n">
+        <v>11959.95</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>13413.3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4591.626357654291</v>
+      </c>
+      <c r="J41" t="n">
+        <v>85014.82900373702</v>
+      </c>
+      <c r="K41" t="n">
+        <v>799402.1253613913</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>31/10/2022</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>134390.28</v>
+      </c>
+      <c r="D42" t="n">
+        <v>545032.14</v>
+      </c>
+      <c r="E42" t="n">
+        <v>11959.95</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>13413.3</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4591.626357654291</v>
+      </c>
+      <c r="J42" t="n">
+        <v>84043.15592530988</v>
+      </c>
+      <c r="K42" t="n">
+        <v>798430.4522829643</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/base_dash.xlsx
+++ b/base_dash.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,59 +422,60 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Fundos de Investimentos</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Fundos Imobiliários</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Ações</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>COE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Renda Fixa</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Disponível</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Cripto</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Dow Jones</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>20/07/2022</t>
@@ -521,7 +510,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr"/>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>27/07/2022</t>
@@ -556,7 +545,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr"/>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
           <t>28/07/2022</t>
@@ -591,7 +580,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr"/>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>08/08/2022</t>
@@ -626,7 +615,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr"/>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
           <t>09/08/2022</t>
@@ -661,7 +650,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr"/>
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
           <t>11/08/2022</t>
@@ -696,7 +685,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr"/>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>13/08/2022</t>
@@ -731,7 +720,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr"/>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
           <t>16/08/2022</t>
@@ -766,7 +755,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr"/>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>17/08/2022</t>
@@ -801,7 +790,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr"/>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
           <t>18/08/2022</t>
@@ -836,7 +825,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr"/>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
           <t>19/08/2022</t>
@@ -871,7 +860,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr"/>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
           <t>22/08/2022</t>
@@ -906,7 +895,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr"/>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
           <t>23/08/2022</t>
@@ -941,7 +930,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr"/>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
           <t>25/08/2022</t>
@@ -976,7 +965,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr"/>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
           <t>26/08/2022</t>
@@ -1011,7 +1000,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr"/>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
           <t>29/08/2022</t>
@@ -1046,7 +1035,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr"/>
+      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
           <t>30/08/2022</t>
@@ -1081,7 +1070,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr"/>
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
           <t>31/08/2022</t>
@@ -1116,7 +1105,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr"/>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
           <t>02/09/2022</t>
@@ -1151,7 +1140,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr"/>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
           <t>05/09/2022</t>
@@ -1186,7 +1175,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr"/>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
           <t>06/09/2022</t>
@@ -1221,7 +1210,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr"/>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
           <t>12/09/2022</t>
@@ -1256,7 +1245,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr"/>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
           <t>15/09/2022</t>
@@ -1291,7 +1280,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr"/>
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
           <t>17/09/2022</t>
@@ -1326,7 +1315,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr"/>
+      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
           <t>20/09/2022</t>
@@ -1361,7 +1350,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr"/>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
           <t>22/09/2022</t>
@@ -1396,7 +1385,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr"/>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
           <t>27/09/2022</t>
@@ -1431,7 +1420,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr"/>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
           <t>29/09/2022</t>
@@ -1466,7 +1455,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr"/>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
           <t>30/09/2022</t>
@@ -1501,7 +1490,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr"/>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
           <t>03/10/2022</t>
@@ -1536,7 +1525,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr"/>
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
           <t>04/10/2022</t>
@@ -1571,7 +1560,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr"/>
+      <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
           <t>06/10/2022</t>
@@ -1606,7 +1595,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr"/>
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
           <t>07/10/2022</t>
@@ -1641,7 +1630,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr"/>
+      <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
           <t>10/10/2022</t>
@@ -1676,7 +1665,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr"/>
+      <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
           <t>13/10/2022</t>
@@ -1711,7 +1700,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr"/>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
           <t>19/10/2022</t>
@@ -1746,7 +1735,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr"/>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
           <t>22/10/2022</t>
@@ -1781,7 +1770,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr"/>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
           <t>25/10/2022</t>
@@ -1816,7 +1805,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr"/>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
           <t>28/10/2022</t>
@@ -1851,7 +1840,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr"/>
+      <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
           <t>31/10/2022</t>
@@ -1886,38 +1875,178 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr"/>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>31/10/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>134390.28</v>
+        <v>134459.22</v>
       </c>
       <c r="D42" t="n">
-        <v>545032.14</v>
+        <v>541663.1</v>
       </c>
       <c r="E42" t="n">
-        <v>11959.95</v>
+        <v>11891.37</v>
       </c>
       <c r="F42" t="n">
         <v>5000</v>
       </c>
       <c r="G42" t="n">
-        <v>13413.3</v>
+        <v>13418.21</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>4591.626357654291</v>
+        <v>5039.626701822027</v>
       </c>
       <c r="J42" t="n">
-        <v>84043.15592530988</v>
+        <v>83929.90348880402</v>
       </c>
       <c r="K42" t="n">
-        <v>798430.4522829643</v>
+        <v>795401.4301906259</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>04/11/2022</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>134595.56</v>
+      </c>
+      <c r="D43" t="n">
+        <v>538166.02</v>
+      </c>
+      <c r="E43" t="n">
+        <v>11200.52</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>13428.05</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4834.037426540689</v>
+      </c>
+      <c r="J43" t="n">
+        <v>77775.59595341903</v>
+      </c>
+      <c r="K43" t="n">
+        <v>784999.7833799599</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>04/11/2022</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>134595.56</v>
+      </c>
+      <c r="D44" t="n">
+        <v>538166.02</v>
+      </c>
+      <c r="E44" t="n">
+        <v>11200.52</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>13428.05</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4819.615822937981</v>
+      </c>
+      <c r="J44" t="n">
+        <v>77659.85156989409</v>
+      </c>
+      <c r="K44" t="n">
+        <v>784869.6173928323</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>09/11/2022</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>134785.41</v>
+      </c>
+      <c r="D45" t="n">
+        <v>536597.37</v>
+      </c>
+      <c r="E45" t="n">
+        <v>11309.62</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>13442.81</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1506.81</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3847.917277617723</v>
+      </c>
+      <c r="J45" t="n">
+        <v>82282.0852701814</v>
+      </c>
+      <c r="K45" t="n">
+        <v>788772.0225477993</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>10/11/2022</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>134921.02</v>
+      </c>
+      <c r="D46" t="n">
+        <v>531655.78</v>
+      </c>
+      <c r="E46" t="n">
+        <v>12274.35</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>13447.73</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1506.81</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4212.625104059071</v>
+      </c>
+      <c r="J46" t="n">
+        <v>84465.14799488467</v>
+      </c>
+      <c r="K46" t="n">
+        <v>787483.4630989438</v>
       </c>
     </row>
   </sheetData>

--- a/base_dash.xlsx
+++ b/base_dash.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2049,6 +2049,321 @@
         <v>787483.4630989438</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>14/11/2022</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>135055.71</v>
+      </c>
+      <c r="D47" t="n">
+        <v>528901.96</v>
+      </c>
+      <c r="E47" t="n">
+        <v>12267.92</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>13473.81</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1863.81</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3893.748588910318</v>
+      </c>
+      <c r="J47" t="n">
+        <v>91477.44276186066</v>
+      </c>
+      <c r="K47" t="n">
+        <v>791934.4013507711</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>19/11/2022</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>135258.08</v>
+      </c>
+      <c r="D48" t="n">
+        <v>515201.68</v>
+      </c>
+      <c r="E48" t="n">
+        <v>12041.61</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>13496.43</v>
+      </c>
+      <c r="H48" t="n">
+        <v>19197.57</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3912.510472399574</v>
+      </c>
+      <c r="J48" t="n">
+        <v>91198.8165210061</v>
+      </c>
+      <c r="K48" t="n">
+        <v>795306.6969934056</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>23/11/2022</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>135396.88</v>
+      </c>
+      <c r="D49" t="n">
+        <v>522135.63</v>
+      </c>
+      <c r="E49" t="n">
+        <v>11715.24</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>13507.21</v>
+      </c>
+      <c r="H49" t="n">
+        <v>20226.29</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3854.796457892118</v>
+      </c>
+      <c r="J49" t="n">
+        <v>91879.24479867239</v>
+      </c>
+      <c r="K49" t="n">
+        <v>803715.2912565646</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>29/11/2022</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>135736.21</v>
+      </c>
+      <c r="D50" t="n">
+        <v>519465.03</v>
+      </c>
+      <c r="E50" t="n">
+        <v>11350.58</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>13530.2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>20226.29</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4029.333695786354</v>
+      </c>
+      <c r="J50" t="n">
+        <v>90511.21215349852</v>
+      </c>
+      <c r="K50" t="n">
+        <v>799848.8558492848</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>06/12/2022</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>134878.58</v>
+      </c>
+      <c r="D51" t="n">
+        <v>537077.99</v>
+      </c>
+      <c r="E51" t="n">
+        <v>11575.24</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>13557.39</v>
+      </c>
+      <c r="H51" t="n">
+        <v>226.29</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4089.403510943682</v>
+      </c>
+      <c r="J51" t="n">
+        <v>90022.94530594132</v>
+      </c>
+      <c r="K51" t="n">
+        <v>796427.8388168849</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>10/12/2022</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>135085.31</v>
+      </c>
+      <c r="D52" t="n">
+        <v>531867.77</v>
+      </c>
+      <c r="E52" t="n">
+        <v>11269.24</v>
+      </c>
+      <c r="F52" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>13566.21</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1733.1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4076.225979730334</v>
+      </c>
+      <c r="J52" t="n">
+        <v>88231.72543101863</v>
+      </c>
+      <c r="K52" t="n">
+        <v>790829.581410749</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>16/12/2022</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>135358.96</v>
+      </c>
+      <c r="D53" t="n">
+        <v>516620.19</v>
+      </c>
+      <c r="E53" t="n">
+        <v>10964.6</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>13579.98</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3868.96</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3898.837213704102</v>
+      </c>
+      <c r="J53" t="n">
+        <v>88687.23587213999</v>
+      </c>
+      <c r="K53" t="n">
+        <v>777978.7630858441</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>26/12/2022</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>135839.56</v>
+      </c>
+      <c r="D54" t="n">
+        <v>519534.64</v>
+      </c>
+      <c r="E54" t="n">
+        <v>10636.08</v>
+      </c>
+      <c r="F54" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G54" t="n">
+        <v>13612.94</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5360.38</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3724.00134221873</v>
+      </c>
+      <c r="J54" t="n">
+        <v>84978.18225301147</v>
+      </c>
+      <c r="K54" t="n">
+        <v>778685.7835952301</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>27/12/2022</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>135839.56</v>
+      </c>
+      <c r="D55" t="n">
+        <v>519207.78</v>
+      </c>
+      <c r="E55" t="n">
+        <v>10594.44</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G55" t="n">
+        <v>13617.8</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5360.38</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3770.093120963595</v>
+      </c>
+      <c r="J55" t="n">
+        <v>86362.69430715744</v>
+      </c>
+      <c r="K55" t="n">
+        <v>779752.747428121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/base_dash.xlsx
+++ b/base_dash.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2364,6 +2364,146 @@
         <v>779752.747428121</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>29/12/2022</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>136049.33</v>
+      </c>
+      <c r="D56" t="n">
+        <v>522795.35</v>
+      </c>
+      <c r="E56" t="n">
+        <v>10533.58</v>
+      </c>
+      <c r="F56" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>13627.51</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5360.38</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3716.640949643969</v>
+      </c>
+      <c r="J56" t="n">
+        <v>84810.22506820038</v>
+      </c>
+      <c r="K56" t="n">
+        <v>781893.0160178442</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>136120.19</v>
+      </c>
+      <c r="D57" t="n">
+        <v>527714.13</v>
+      </c>
+      <c r="E57" t="n">
+        <v>10865.4</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>13637.23</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3777.382053416271</v>
+      </c>
+      <c r="J57" t="n">
+        <v>86733.08177797406</v>
+      </c>
+      <c r="K57" t="n">
+        <v>783847.4138313903</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>03/01/2023</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>136260.17</v>
+      </c>
+      <c r="D58" t="n">
+        <v>520942.82</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10953.22</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>13642.09</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3894.076432781174</v>
+      </c>
+      <c r="J58" t="n">
+        <v>89412.5203429274</v>
+      </c>
+      <c r="K58" t="n">
+        <v>780104.8967757085</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>04/01/2023</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>136331.16</v>
+      </c>
+      <c r="D59" t="n">
+        <v>519867.97</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10924.84</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>13646.96</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3888.716923624794</v>
+      </c>
+      <c r="J59" t="n">
+        <v>88401.38080427841</v>
+      </c>
+      <c r="K59" t="n">
+        <v>778061.0277279031</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
